--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4181738.094855068</v>
+        <v>4179487.276469175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>101.3120708005645</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>332.6365438682495</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.5779393906813</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396208</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>112.6639859573591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>144.7268717888057</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589027</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>125.9151012567412</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>114.4746605491539</v>
+        <v>215.9919723025114</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>74.75769145492407</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>84.69473660442682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744745</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.35257921647518</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192023</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.07437110675895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.4025801238262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>138.8504880697911</v>
       </c>
       <c r="D34" t="n">
-        <v>117.2674734811323</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121065</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767762</v>
+        <v>70.54906940204778</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077544</v>
+        <v>258.1266653077543</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,22 +3427,22 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.29847147649308</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>96.66271324503558</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
@@ -3679,7 +3679,7 @@
         <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>62.66562407645869</v>
+        <v>67.95608738100144</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026052</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767762</v>
+        <v>70.75716761800909</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697911</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>19.5401396760635</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301915</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>83.00519612019183</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077544</v>
+        <v>258.1266653077543</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>136.564854670159</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>17.86119194381602</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121064</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>258.1266653077543</v>
       </c>
       <c r="X46" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>177.1473116820522</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>177.1473116820522</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>177.1473116820522</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>170.2018109328488</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>156.2784068714397</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>125.4609311463251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143458</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1639.851790143458</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.586091536707</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>1281.586091536707</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>870.6001867470998</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2530.908748199353</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,19 +5069,19 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0900014994925</v>
+        <v>245.67767386073</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1538185715856</v>
+        <v>245.67767386073</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736752</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1050.155636366693</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>760.7384663297322</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X13" t="n">
-        <v>760.7384663297322</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7384663297322</v>
+        <v>245.67767386073</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,16 +5367,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.962769867859</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437385</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>782.0861832119347</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>782.0861832119347</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>291.9947530764115</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>625.8141267662579</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.848340014667</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5604,13 +5604,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839437</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927022</v>
@@ -5683,7 +5683,7 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.125669518529</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>722.4071781934688</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,22 +5829,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
@@ -5853,16 +5853,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E22" t="n">
+        <v>171.0738540998324</v>
+      </c>
+      <c r="F22" t="n">
+        <v>171.0738540998325</v>
+      </c>
+      <c r="G22" t="n">
+        <v>171.0738540998325</v>
+      </c>
+      <c r="H22" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="F22" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="G22" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="H22" t="n">
-        <v>95.56103444839439</v>
-      </c>
       <c r="I22" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927022</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622689</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,28 +6066,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839439</v>
+        <v>499.6351384500833</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>330.6989555221764</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>330.6989555221764</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397833</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397834</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397834</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397834</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803231</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>681.2836032803231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,7 +6543,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,10 +6552,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902953</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.5269503710301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431231</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307874</v>
+        <v>110.7876719299688</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299688</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299688</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299688</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299688</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W31" t="n">
-        <v>1192.957545242817</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>964.9679943447998</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.1754152012697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>419.3276555045792</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>753.1470291944256</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6789,10 +6789,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383117</v>
+        <v>661.6308448723813</v>
       </c>
       <c r="C34" t="n">
-        <v>332.2198106859974</v>
+        <v>521.377826620067</v>
       </c>
       <c r="D34" t="n">
-        <v>213.7678172707122</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="E34" t="n">
-        <v>213.7678172707122</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,13 +6859,13 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
         <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6874,10 +6874,10 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
@@ -6886,22 +6886,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674984</v>
+        <v>1692.747274609053</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.587935144689</v>
+        <v>1466.745951078759</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783321</v>
+        <v>1206.011945717391</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608964</v>
+        <v>1006.705559494966</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929589</v>
+        <v>814.5961450270283</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6944,7 +6944,7 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
         <v>2979.169639353395</v>
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
         <v>1138.808109517387</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383122</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C37" t="n">
-        <v>332.2198106859978</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="D37" t="n">
-        <v>332.2198106859978</v>
+        <v>283.4334758612571</v>
       </c>
       <c r="E37" t="n">
-        <v>332.2198106859978</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F37" t="n">
-        <v>332.2198106859978</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G37" t="n">
-        <v>193.2001387363092</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686444</v>
@@ -7132,13 +7132,13 @@
         <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608969</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929593</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7242,10 +7242,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089897</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,7 +7254,7 @@
         <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320245</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051917</v>
+        <v>661.4206446542382</v>
       </c>
       <c r="C40" t="n">
-        <v>533.6201215051917</v>
+        <v>661.4206446542382</v>
       </c>
       <c r="D40" t="n">
-        <v>533.6201215051917</v>
+        <v>539.9871699174951</v>
       </c>
       <c r="E40" t="n">
-        <v>533.6201215051917</v>
+        <v>420.7572410106945</v>
       </c>
       <c r="F40" t="n">
-        <v>415.4133386828736</v>
+        <v>420.7572410106945</v>
       </c>
       <c r="G40" t="n">
-        <v>276.3936667331852</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H40" t="n">
-        <v>158.8596446266355</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413027</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686444</v>
@@ -7354,28 +7354,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1692.53707439091</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711569</v>
+        <v>1466.535750860616</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.001222350201</v>
+        <v>1205.801745499248</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277764</v>
+        <v>1006.495359276823</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598389</v>
+        <v>814.3859448088854</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383117</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="C43" t="n">
-        <v>472.4728289383117</v>
+        <v>677.2945253085825</v>
       </c>
       <c r="D43" t="n">
-        <v>351.0393542015686</v>
+        <v>555.8610505718393</v>
       </c>
       <c r="E43" t="n">
-        <v>331.3018393772619</v>
+        <v>436.6311216650388</v>
       </c>
       <c r="F43" t="n">
-        <v>213.0950565549441</v>
+        <v>318.4243388427211</v>
       </c>
       <c r="G43" t="n">
-        <v>213.0950565549441</v>
+        <v>179.4046668930326</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7567,16 +7567,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L43" t="n">
         <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N43" t="n">
         <v>1487.357919090857</v>
@@ -7609,10 +7609,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608964</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929589</v>
+        <v>817.5475435608968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383125</v>
+        <v>472.4728289383124</v>
       </c>
       <c r="C46" t="n">
-        <v>472.4728289383125</v>
+        <v>472.4728289383124</v>
       </c>
       <c r="D46" t="n">
-        <v>351.0393542015694</v>
+        <v>351.0393542015693</v>
       </c>
       <c r="E46" t="n">
-        <v>351.0393542015694</v>
+        <v>231.8094252947687</v>
       </c>
       <c r="F46" t="n">
-        <v>351.0393542015694</v>
+        <v>113.602642472451</v>
       </c>
       <c r="G46" t="n">
-        <v>213.0950565549441</v>
+        <v>113.602642472451</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7819,13 +7819,13 @@
         <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
         <v>2120.095131126211</v>
@@ -7849,7 +7849,7 @@
         <v>817.5475435608971</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929597</v>
+        <v>625.4381290929595</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>169.5026663584972</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792226</v>
+        <v>341.5962138876751</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.630896635345181</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>76.45227440777427</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>105.1996354507095</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>353.7642348290863</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.61882225792249</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>136.2499899971307</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>36.48628322062227</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>272.882861657588</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.4736573664688</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>73.85778156328908</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>160.6078970798499</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0742887270153</v>
+        <v>3.55697697365779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939671</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.0742887270151</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>92.4891296437041</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.1421360569674</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>9.999841193362911</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696688</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>81.27804930307889</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>69.12041821276476</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.951666508243378</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>118.0376296177325</v>
@@ -25090,10 +25090,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>187.2664357747284</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>71.92066851288263</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>19.69596864044854</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.290463304542746</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>187.0583375587671</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.49748994166904</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>33.35348576529224</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>138.8504880697911</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.064620560032567</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.49748994166805</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625164.1020565147</v>
+        <v>625164.1020565146</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625164.1020565147</v>
+        <v>625164.1020565146</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625164.1020565148</v>
+        <v>625164.1020565147</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="F2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="I2" t="n">
         <v>794163.5737739659</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>794163.5737739659</v>
       </c>
-      <c r="H2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="I2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="J2" t="n">
-        <v>794163.5737739658</v>
-      </c>
       <c r="K2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739664</v>
       </c>
       <c r="L2" t="n">
         <v>810411.3648893395</v>
       </c>
       <c r="M2" t="n">
-        <v>810411.3648893393</v>
+        <v>810411.3648893399</v>
       </c>
       <c r="N2" t="n">
+        <v>810411.3648893401</v>
+      </c>
+      <c r="O2" t="n">
         <v>810411.3648893397</v>
       </c>
-      <c r="O2" t="n">
-        <v>810411.36488934</v>
-      </c>
       <c r="P2" t="n">
-        <v>810411.3648893397</v>
+        <v>810411.3648893399</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.974322856312938e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.0664230693</v>
+        <v>22717.06642306934</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918992</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>27492.30103190632</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190632</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.30103190631</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26485,13 +26485,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079881</v>
+        <v>-35133.8742707987</v>
       </c>
       <c r="C6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437456</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437459</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.85079234421</v>
+        <v>-47813.04628256987</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010626</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010624</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010626</v>
+        <v>679564.3677108365</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010626</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084693</v>
+        <v>503141.1485182436</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010625</v>
+        <v>679564.367710837</v>
       </c>
       <c r="L6" t="n">
-        <v>661431.227859249</v>
+        <v>661404.6518468116</v>
       </c>
       <c r="M6" t="n">
-        <v>554505.9794433733</v>
+        <v>554479.4034309364</v>
       </c>
       <c r="N6" t="n">
-        <v>684148.2942823184</v>
+        <v>684121.7182698816</v>
       </c>
       <c r="O6" t="n">
-        <v>684148.2942823188</v>
+        <v>684121.7182698811</v>
       </c>
       <c r="P6" t="n">
-        <v>684148.2942823181</v>
+        <v>684121.7182698812</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="M2" t="n">
         <v>28.39633302883665</v>
@@ -26722,10 +26722,10 @@
         <v>28.39633302883665</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>222.6107019637927</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>64.16285195963719</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>81.14762615254546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>51.87038096697651</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883668</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883668</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34778,10 +34778,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>677.5556672467163</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502542</v>
+        <v>797.1863282800073</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>198.4178976040577</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>532.0423888001062</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306616</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>442.39092200611</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>892.685350659313</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>581.9206576708337</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>327.0369909658432</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37233,7 +37233,7 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
         <v>373.2532791963767</v>
@@ -37242,7 +37242,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37312,10 +37312,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,19 +37552,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>96.09948176284705</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.9747496419029</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37710,7 +37710,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>826.9689307863306</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -37947,7 +37947,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>780.9358625458071</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
         <v>373.2532791963768</v>
